--- a/Clone/QuanLyDiemClone/ThemHP_Excel.xlsx
+++ b/Clone/QuanLyDiemClone/ThemHP_Excel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QuanLyDiem\Clone\QuanLyDiemClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA804D98-066D-4355-AAB4-E190BD9E25F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{78E1373E-B38E-4A8B-85E0-C5968A5362A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,42 +104,42 @@
     <t>HP042</t>
   </si>
   <si>
-    <t>Nguyên Lý 1</t>
-  </si>
-  <si>
-    <t>CD 1</t>
-  </si>
-  <si>
-    <t>Rom 1</t>
-  </si>
-  <si>
-    <t>Ram 1</t>
-  </si>
-  <si>
-    <t>Card 1</t>
-  </si>
-  <si>
-    <t>CPU 1</t>
-  </si>
-  <si>
-    <t>Âm thanh 1</t>
-  </si>
-  <si>
-    <t>Ánh sáng 1</t>
-  </si>
-  <si>
-    <t>CD Blue 1</t>
+    <t>Toán ứng dụng</t>
+  </si>
+  <si>
+    <t>Giải thuật nâng cao</t>
+  </si>
+  <si>
+    <t>Hệ phân tán</t>
+  </si>
+  <si>
+    <t>Công nghệ phần mềm nâng cao</t>
+  </si>
+  <si>
+    <t>Trí tuệ nhân tạo nâng cao</t>
+  </si>
+  <si>
+    <t>Lý thuyết tính toán</t>
+  </si>
+  <si>
+    <t>An toàn và bảo mật thông tin</t>
+  </si>
+  <si>
+    <t>Phân tích và thiết kế hướng đội tượng</t>
+  </si>
+  <si>
+    <t>Toán ứng dụn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -480,21 +479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BB90BF-16D7-42BD-BD0F-78CF6B3FE628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -557,7 +556,7 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>45</v>
@@ -583,7 +582,7 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -609,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>45</v>
@@ -635,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -661,7 +660,7 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -687,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -713,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -739,7 +738,7 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>30</v>

--- a/Clone/QuanLyDiemClone/ThemHP_Excel.xlsx
+++ b/Clone/QuanLyDiemClone/ThemHP_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Số Tiết</t>
   </si>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t>Mã Học Phần</t>
-  </si>
-  <si>
-    <t>HK001</t>
-  </si>
-  <si>
-    <t>HK002</t>
-  </si>
-  <si>
-    <t>HK003</t>
-  </si>
-  <si>
-    <t>HK004</t>
   </si>
   <si>
     <t>GV003</t>
@@ -483,7 +471,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -524,10 +512,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -541,19 +529,16 @@
       <c r="F2">
         <v>0.6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -567,19 +552,16 @@
       <c r="F3">
         <v>0.6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -593,19 +575,16 @@
       <c r="F4">
         <v>0.6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -619,19 +598,16 @@
       <c r="F5">
         <v>0.6</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -645,19 +621,16 @@
       <c r="F6">
         <v>0.6</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -671,19 +644,16 @@
       <c r="F7">
         <v>0.6</v>
       </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -697,19 +667,16 @@
       <c r="F8">
         <v>0.6</v>
       </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -723,19 +690,16 @@
       <c r="F9">
         <v>0.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -749,11 +713,8 @@
       <c r="F10">
         <v>0.6</v>
       </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
